--- a/dist/document/dest/2020/10/doctors/87.xlsx
+++ b/dist/document/dest/2020/10/doctors/87.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>1926</v>
       </c>
-      <c r="C2" s="1">
-        <v>12499740</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>201</v>
       </c>
-      <c r="C3" s="1">
-        <v>1155750</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>783</v>
       </c>
-      <c r="C4" s="1">
-        <v>6029100</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>28</v>
       </c>
-      <c r="C5" s="1">
-        <v>83720</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>12281</v>
       </c>
-      <c r="C6" s="1">
-        <v>93212790</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <v>68300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>30</v>
       </c>
-      <c r="C8" s="1">
-        <v>429000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>138600</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>226</v>
       </c>
-      <c r="C10" s="1">
-        <v>2983200</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>168</v>
       </c>
-      <c r="C11" s="1">
-        <v>14414400</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="C12" s="1">
-        <v>246600</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
-        <v>100400</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>264</v>
       </c>
-      <c r="C14" s="1">
-        <v>1727880</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>140</v>
       </c>
-      <c r="C15" s="1">
-        <v>2310000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>7835</v>
       </c>
-      <c r="C16" s="1">
-        <v>47401750</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>84</v>
       </c>
-      <c r="C17" s="1">
-        <v>57120</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>1154</v>
       </c>
-      <c r="C18" s="1">
-        <v>72702000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>84</v>
       </c>
-      <c r="C19" s="1">
-        <v>1478400</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>14</v>
       </c>
-      <c r="C20" s="1">
-        <v>37030</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
-        <v>6000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>146</v>
       </c>
-      <c r="C22" s="1">
-        <v>805920</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>2815</v>
       </c>
-      <c r="C23" s="1">
-        <v>8416850</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>116</v>
       </c>
-      <c r="C24" s="1">
-        <v>213440</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>204</v>
       </c>
-      <c r="C25" s="1">
-        <v>432480</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>946</v>
       </c>
-      <c r="C26" s="1">
-        <v>2610960</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>266</v>
       </c>
-      <c r="C27" s="1">
-        <v>1223600</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>10410</v>
       </c>
-      <c r="C28" s="1">
-        <v>79220100</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>135</v>
       </c>
-      <c r="C29" s="1">
-        <v>543375</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>30</v>
       </c>
-      <c r="C30" s="1">
-        <v>260700</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>279</v>
       </c>
-      <c r="C31" s="1">
-        <v>1199700</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>224</v>
       </c>
-      <c r="C32" s="1">
-        <v>3696000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>10128</v>
       </c>
-      <c r="C33" s="1">
-        <v>89126400</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>205</v>
       </c>
-      <c r="C34" s="1">
-        <v>455100</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>20</v>
       </c>
-      <c r="C35" s="1">
-        <v>2200000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>726</v>
       </c>
-      <c r="C36" s="1">
-        <v>3757050</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>448</v>
       </c>
-      <c r="C37" s="1">
-        <v>2033920</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>975</v>
       </c>
-      <c r="C38" s="1">
-        <v>3700125</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>453</v>
       </c>
-      <c r="C39" s="1">
-        <v>3986400</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>30</v>
       </c>
-      <c r="C40" s="1">
-        <v>529800</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>4411</v>
       </c>
-      <c r="C41" s="1">
-        <v>33589765</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -845,7 +725,7 @@
         <v>58264</v>
       </c>
       <c r="C42" s="1">
-        <v>495083465</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/87.xlsx
+++ b/dist/document/dest/2020/10/doctors/87.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,335 +402,1302 @@
         <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>1926</v>
+        <v>504</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3270960</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>201</v>
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3245000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>783</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>389400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>12281</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Betadine Gar 1%  (SM)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>480</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3696000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>315</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2425500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>842490</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B10" s="1">
-        <v>226</v>
+        <v>155</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1176450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B11" s="1">
-        <v>168</v>
+        <v>264</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2003760</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B12" s="1">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1366200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>246</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1867140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B14" s="1">
-        <v>264</v>
+        <v>360</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2732400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Egodinir (Cefdinir 300mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B15" s="1">
-        <v>140</v>
+        <v>7882</v>
+      </c>
+      <c r="C15" s="1">
+        <v>59824380</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Enterobella (Bacillus clausii)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B16" s="1">
-        <v>7835</v>
+        <v>270</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2049300</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Farzincol (Equivalent 10mg) zinc gluconate 70mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B17" s="1">
-        <v>84</v>
+        <v>492</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3734280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B18" s="1">
-        <v>1154</v>
+        <v>87</v>
+      </c>
+      <c r="C18" s="1">
+        <v>660330</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>69300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kaleorid (Potassium 600mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B20" s="1">
         <v>14</v>
       </c>
+      <c r="C20" s="1">
+        <v>138600</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve">Khẩu trang </v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>369600</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>184800</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>2815</v>
+        <v>84</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1108800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
       </c>
       <c r="B24" s="1">
-        <v>116</v>
+        <v>42</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3603600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>100400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Mosad MT (Mosapride 5mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>946</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>196350</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>266</v>
+        <v>177</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1158465</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B28" s="1">
-        <v>10410</v>
+        <v>87</v>
+      </c>
+      <c r="C28" s="1">
+        <v>526350</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B29" s="1">
-        <v>135</v>
+        <v>210</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1270500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B30" s="1">
-        <v>30</v>
+        <v>134</v>
+      </c>
+      <c r="C30" s="1">
+        <v>810700</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Smecta (Diosmectite 3g)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B31" s="1">
-        <v>279</v>
+        <v>219</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1324950</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B32" s="1">
-        <v>224</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>272250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B33" s="1">
-        <v>10128</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="1">
+        <v>272250</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve">Sorbitol </v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B34" s="1">
-        <v>205</v>
+        <v>5111</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30921550</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B35" s="1">
-        <v>20</v>
+        <v>303</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1833150</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B36" s="1">
-        <v>726</v>
+        <v>322</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1948100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B37" s="1">
-        <v>448</v>
+        <v>120</v>
+      </c>
+      <c r="C37" s="1">
+        <v>726000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Uvomo (Mosaprid citrat 5mg)</v>
+        <v>Enterogermina 5ml</v>
       </c>
       <c r="B38" s="1">
-        <v>975</v>
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>165690</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Vinsalamin (Mesalamin 400mg)</v>
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
       </c>
       <c r="B39" s="1">
-        <v>453</v>
+        <v>52</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3276000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Xatral XL(Alfuzosine 10mg)</v>
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
       </c>
       <c r="B40" s="1">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1764000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
       </c>
       <c r="B41" s="1">
-        <v>4411</v>
+        <v>84</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5292000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>504</v>
+      </c>
+      <c r="C44" s="1">
+        <v>31752000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>116</v>
+      </c>
+      <c r="C47" s="1">
+        <v>320160</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1">
+        <v>492800</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1">
+        <v>492800</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>235</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4136000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>30</v>
+      </c>
+      <c r="C51" s="1">
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>150</v>
+      </c>
+      <c r="C52" s="1">
+        <v>431250</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1">
+        <v>166750</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1">
+        <v>166750</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1">
+        <v>734160</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44</v>
+      </c>
+      <c r="C57" s="1">
+        <v>131560</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2095</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6264050</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1">
+        <v>179400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>88</v>
+      </c>
+      <c r="C60" s="1">
+        <v>263120</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1">
+        <v>127200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45</v>
+      </c>
+      <c r="C63" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1">
+        <v>182160</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>711</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1962360</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>90</v>
+      </c>
+      <c r="C67" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>151</v>
+      </c>
+      <c r="C68" s="1">
+        <v>694600</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>111</v>
+      </c>
+      <c r="C69" s="1">
+        <v>844710</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>490</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3728900</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>245</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1864450</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>135</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1027350</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>225</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1712250</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>558</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4246380</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6205</v>
+      </c>
+      <c r="C75" s="1">
+        <v>47220050</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>180</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1369800</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>492</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3744120</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>177</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1346970</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45</v>
+      </c>
+      <c r="C79" s="1">
+        <v>181125</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>90</v>
+      </c>
+      <c r="C80" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Smecta (Diosmectite 3g)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>21</v>
+      </c>
+      <c r="C81" s="1">
+        <v>90300</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Smecta (Diosmectite 3g)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1">
+        <v>206400</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>14</v>
+      </c>
+      <c r="C83" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>14</v>
+      </c>
+      <c r="C84" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>140</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>28</v>
+      </c>
+      <c r="C87" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B88" s="1">
+        <v>358</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3150400</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B89" s="1">
+        <v>100</v>
+      </c>
+      <c r="C89" s="1">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B90" s="1">
+        <v>177</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1557600</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B91" s="1">
+        <v>132</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1161600</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B92" s="1">
+        <v>372</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3273600</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B93" s="1">
+        <v>6568</v>
+      </c>
+      <c r="C93" s="1">
+        <v>57798400</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B94" s="1">
+        <v>180</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1584000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B95" s="1">
+        <v>343</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3018400</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B96" s="1">
+        <v>120</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B97" s="1">
+        <v>164</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1443200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v xml:space="preserve">Sorbitol </v>
+      </c>
+      <c r="B98" s="1">
+        <v>30</v>
+      </c>
+      <c r="C98" s="1">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v xml:space="preserve">Sorbitol </v>
+      </c>
+      <c r="B99" s="1">
+        <v>42</v>
+      </c>
+      <c r="C99" s="1">
+        <v>93240</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v xml:space="preserve">Sorbitol </v>
+      </c>
+      <c r="B100" s="1">
+        <v>45</v>
+      </c>
+      <c r="C100" s="1">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>30</v>
+      </c>
+      <c r="C101" s="1">
+        <v>554400</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45</v>
+      </c>
+      <c r="C102" s="1">
+        <v>232875</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>21</v>
+      </c>
+      <c r="C103" s="1">
+        <v>108675</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>309</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1599075</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>10</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>56</v>
+      </c>
+      <c r="C106" s="1">
+        <v>254240</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>168</v>
+      </c>
+      <c r="C107" s="1">
+        <v>762720</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>56</v>
+      </c>
+      <c r="C108" s="1">
+        <v>254240</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>90</v>
+      </c>
+      <c r="C109" s="1">
+        <v>341550</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45</v>
+      </c>
+      <c r="C110" s="1">
+        <v>170775</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45</v>
+      </c>
+      <c r="C111" s="1">
+        <v>170775</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>984</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3734280</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45</v>
+      </c>
+      <c r="C113" s="1">
+        <v>170775</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>120</v>
+      </c>
+      <c r="C114" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>21</v>
+      </c>
+      <c r="C115" s="1">
+        <v>159915</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>90</v>
+      </c>
+      <c r="C116" s="1">
+        <v>685350</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3423</v>
+      </c>
+      <c r="C117" s="1">
+        <v>26066145</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>21</v>
+      </c>
+      <c r="C118" s="1">
+        <v>159915</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B42" s="1">
-        <v>58264</v>
-      </c>
-      <c r="C42" s="1">
-        <v>NaN</v>
+      <c r="B119" s="1">
+        <v>47588</v>
+      </c>
+      <c r="C119" s="1">
+        <v>382526165</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C119"/>
   </ignoredErrors>
 </worksheet>
 </file>